--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.2540297337283</v>
+        <v>3.744854333333334</v>
       </c>
       <c r="H2">
-        <v>10.2540297337283</v>
+        <v>11.234563</v>
       </c>
       <c r="I2">
-        <v>0.872770810400377</v>
+        <v>0.2406267676902895</v>
       </c>
       <c r="J2">
-        <v>0.872770810400377</v>
+        <v>0.2406267676902895</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N2">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q2">
-        <v>101.9588830815353</v>
+        <v>57.5166210255429</v>
       </c>
       <c r="R2">
-        <v>101.9588830815353</v>
+        <v>517.649589229886</v>
       </c>
       <c r="S2">
-        <v>0.06072666321436317</v>
+        <v>0.02435245918823785</v>
       </c>
       <c r="T2">
-        <v>0.06072666321436317</v>
+        <v>0.02435245918823785</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.2540297337283</v>
+        <v>3.744854333333334</v>
       </c>
       <c r="H3">
-        <v>10.2540297337283</v>
+        <v>11.234563</v>
       </c>
       <c r="I3">
-        <v>0.872770810400377</v>
+        <v>0.2406267676902895</v>
       </c>
       <c r="J3">
-        <v>0.872770810400377</v>
+        <v>0.2406267676902895</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N3">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q3">
-        <v>518.5742356607855</v>
+        <v>189.4617850264136</v>
       </c>
       <c r="R3">
-        <v>518.5742356607855</v>
+        <v>1705.156065237722</v>
       </c>
       <c r="S3">
-        <v>0.3088625729200574</v>
+        <v>0.08021786233821757</v>
       </c>
       <c r="T3">
-        <v>0.3088625729200574</v>
+        <v>0.08021786233821757</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.2540297337283</v>
+        <v>3.744854333333334</v>
       </c>
       <c r="H4">
-        <v>10.2540297337283</v>
+        <v>11.234563</v>
       </c>
       <c r="I4">
-        <v>0.872770810400377</v>
+        <v>0.2406267676902895</v>
       </c>
       <c r="J4">
-        <v>0.872770810400377</v>
+        <v>0.2406267676902895</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N4">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q4">
-        <v>584.3700727596656</v>
+        <v>226.1036567775123</v>
       </c>
       <c r="R4">
-        <v>584.3700727596656</v>
+        <v>2034.93291099761</v>
       </c>
       <c r="S4">
-        <v>0.3480505428119558</v>
+        <v>0.09573198104840745</v>
       </c>
       <c r="T4">
-        <v>0.3480505428119558</v>
+        <v>0.09573198104840745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>10.2540297337283</v>
+        <v>3.744854333333334</v>
       </c>
       <c r="H5">
-        <v>10.2540297337283</v>
+        <v>11.234563</v>
       </c>
       <c r="I5">
-        <v>0.872770810400377</v>
+        <v>0.2406267676902895</v>
       </c>
       <c r="J5">
-        <v>0.872770810400377</v>
+        <v>0.2406267676902895</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N5">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q5">
-        <v>260.461976026955</v>
+        <v>95.23994928700844</v>
       </c>
       <c r="R5">
-        <v>260.461976026955</v>
+        <v>857.159543583076</v>
       </c>
       <c r="S5">
-        <v>0.1551310314540006</v>
+        <v>0.04032446511542658</v>
       </c>
       <c r="T5">
-        <v>0.1551310314540006</v>
+        <v>0.04032446511542659</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.49479322361183</v>
+        <v>10.317205</v>
       </c>
       <c r="H6">
-        <v>1.49479322361183</v>
+        <v>30.951615</v>
       </c>
       <c r="I6">
-        <v>0.1272291895996229</v>
+        <v>0.662935182458301</v>
       </c>
       <c r="J6">
-        <v>0.1272291895996229</v>
+        <v>0.662935182458301</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N6">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q6">
-        <v>14.86317589035267</v>
+        <v>158.4603077203367</v>
       </c>
       <c r="R6">
-        <v>14.86317589035267</v>
+        <v>1426.14276948303</v>
       </c>
       <c r="S6">
-        <v>0.008852500628782853</v>
+        <v>0.06709187897184343</v>
       </c>
       <c r="T6">
-        <v>0.008852500628782853</v>
+        <v>0.06709187897184343</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.49479322361183</v>
+        <v>10.317205</v>
       </c>
       <c r="H7">
-        <v>1.49479322361183</v>
+        <v>30.951615</v>
       </c>
       <c r="I7">
-        <v>0.1272291895996229</v>
+        <v>0.662935182458301</v>
       </c>
       <c r="J7">
-        <v>0.1272291895996229</v>
+        <v>0.662935182458301</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N7">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q7">
-        <v>75.59576805747983</v>
+        <v>521.9738611417566</v>
       </c>
       <c r="R7">
-        <v>75.59576805747983</v>
+        <v>4697.764750275809</v>
       </c>
       <c r="S7">
-        <v>0.04502480420059701</v>
+        <v>0.2210030235457765</v>
       </c>
       <c r="T7">
-        <v>0.04502480420059701</v>
+        <v>0.2210030235457765</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.49479322361183</v>
+        <v>10.317205</v>
       </c>
       <c r="H8">
-        <v>1.49479322361183</v>
+        <v>30.951615</v>
       </c>
       <c r="I8">
-        <v>0.1272291895996229</v>
+        <v>0.662935182458301</v>
       </c>
       <c r="J8">
-        <v>0.1272291895996229</v>
+        <v>0.662935182458301</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N8">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q8">
-        <v>85.18723346095629</v>
+        <v>622.9235026471167</v>
       </c>
       <c r="R8">
-        <v>85.18723346095629</v>
+        <v>5606.31152382405</v>
       </c>
       <c r="S8">
-        <v>0.05073747652188309</v>
+        <v>0.2637449645880844</v>
       </c>
       <c r="T8">
-        <v>0.05073747652188309</v>
+        <v>0.2637449645880844</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.317205</v>
+      </c>
+      <c r="H9">
+        <v>30.951615</v>
+      </c>
+      <c r="I9">
+        <v>0.662935182458301</v>
+      </c>
+      <c r="J9">
+        <v>0.662935182458301</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>25.43221733333333</v>
+      </c>
+      <c r="N9">
+        <v>76.29665199999999</v>
+      </c>
+      <c r="O9">
+        <v>0.1675809615966257</v>
+      </c>
+      <c r="P9">
+        <v>0.1675809615966258</v>
+      </c>
+      <c r="Q9">
+        <v>262.3893998325533</v>
+      </c>
+      <c r="R9">
+        <v>2361.50459849298</v>
+      </c>
+      <c r="S9">
+        <v>0.1110953153525966</v>
+      </c>
+      <c r="T9">
+        <v>0.1110953153525966</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.500857333333333</v>
+      </c>
+      <c r="H10">
+        <v>4.502572</v>
+      </c>
+      <c r="I10">
+        <v>0.09643804985140959</v>
+      </c>
+      <c r="J10">
+        <v>0.09643804985140959</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>15.35884066666667</v>
+      </c>
+      <c r="N10">
+        <v>46.076522</v>
+      </c>
+      <c r="O10">
+        <v>0.1012042817263867</v>
+      </c>
+      <c r="P10">
+        <v>0.1012042817263867</v>
+      </c>
+      <c r="Q10">
+        <v>23.05142864606488</v>
+      </c>
+      <c r="R10">
+        <v>207.462857814584</v>
+      </c>
+      <c r="S10">
+        <v>0.009759943566305378</v>
+      </c>
+      <c r="T10">
+        <v>0.009759943566305378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.49479322361183</v>
-      </c>
-      <c r="H9">
-        <v>1.49479322361183</v>
-      </c>
-      <c r="I9">
-        <v>0.1272291895996229</v>
-      </c>
-      <c r="J9">
-        <v>0.1272291895996229</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>25.4009382448175</v>
-      </c>
-      <c r="N9">
-        <v>25.4009382448175</v>
-      </c>
-      <c r="O9">
-        <v>0.1777454397023606</v>
-      </c>
-      <c r="P9">
-        <v>0.1777454397023606</v>
-      </c>
-      <c r="Q9">
-        <v>37.96915036173577</v>
-      </c>
-      <c r="R9">
-        <v>37.96915036173577</v>
-      </c>
-      <c r="S9">
-        <v>0.02261440824835998</v>
-      </c>
-      <c r="T9">
-        <v>0.02261440824835998</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.500857333333333</v>
+      </c>
+      <c r="H11">
+        <v>4.502572</v>
+      </c>
+      <c r="I11">
+        <v>0.09643804985140959</v>
+      </c>
+      <c r="J11">
+        <v>0.09643804985140959</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>50.59256466666667</v>
+      </c>
+      <c r="N11">
+        <v>151.777694</v>
+      </c>
+      <c r="O11">
+        <v>0.3333704853712116</v>
+      </c>
+      <c r="P11">
+        <v>0.3333704853712116</v>
+      </c>
+      <c r="Q11">
+        <v>75.93222169210756</v>
+      </c>
+      <c r="R11">
+        <v>683.3899952289679</v>
+      </c>
+      <c r="S11">
+        <v>0.03214959948721751</v>
+      </c>
+      <c r="T11">
+        <v>0.03214959948721751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.500857333333333</v>
+      </c>
+      <c r="H12">
+        <v>4.502572</v>
+      </c>
+      <c r="I12">
+        <v>0.09643804985140959</v>
+      </c>
+      <c r="J12">
+        <v>0.09643804985140959</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>60.37715666666667</v>
+      </c>
+      <c r="N12">
+        <v>181.13147</v>
+      </c>
+      <c r="O12">
+        <v>0.397844271305776</v>
+      </c>
+      <c r="P12">
+        <v>0.397844271305776</v>
+      </c>
+      <c r="Q12">
+        <v>90.61749834898222</v>
+      </c>
+      <c r="R12">
+        <v>815.55748514084</v>
+      </c>
+      <c r="S12">
+        <v>0.03836732566928415</v>
+      </c>
+      <c r="T12">
+        <v>0.03836732566928415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.500857333333333</v>
+      </c>
+      <c r="H13">
+        <v>4.502572</v>
+      </c>
+      <c r="I13">
+        <v>0.09643804985140959</v>
+      </c>
+      <c r="J13">
+        <v>0.09643804985140959</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>25.43221733333333</v>
+      </c>
+      <c r="N13">
+        <v>76.29665199999999</v>
+      </c>
+      <c r="O13">
+        <v>0.1675809615966257</v>
+      </c>
+      <c r="P13">
+        <v>0.1675809615966258</v>
+      </c>
+      <c r="Q13">
+        <v>38.17012988766044</v>
+      </c>
+      <c r="R13">
+        <v>343.5311689889439</v>
+      </c>
+      <c r="S13">
+        <v>0.01616118112860255</v>
+      </c>
+      <c r="T13">
+        <v>0.01616118112860255</v>
       </c>
     </row>
   </sheetData>
